--- a/Fcm/src/test/resources/TestData.xlsx
+++ b/Fcm/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiswarya.m\eclipse-workspace\Fcm\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiswarya.m\git\TestProject\Fcm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E412A-C99F-4C5F-9E09-7C72E472F327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FF0E0-E1C9-4A2E-9FA8-6BA3219E647C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>Run</t>
   </si>
@@ -287,13 +287,19 @@
   </si>
   <si>
     <t>TC_RoleModule</t>
+  </si>
+  <si>
+    <t>Rolename</t>
+  </si>
+  <si>
+    <t>Callcentreroles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +320,13 @@
       <color rgb="FF1F1F1F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -368,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,6 +422,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,7 +1654,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1672,9 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
@@ -1669,8 +1685,12 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>